--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_v0.1_speed_coherence.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_v0.1_speed_coherence.xlsx
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.261818170547485</v>
+        <v>2.670151472091675</v>
       </c>
       <c r="C2" t="n">
-        <v>2.460384607315063</v>
+        <v>2.631249904632568</v>
       </c>
       <c r="D2" t="n">
-        <v>1.654551148414612</v>
+        <v>2.341794967651367</v>
       </c>
       <c r="E2" t="n">
-        <v>3.395825147628784</v>
+        <v>3.21087384223938</v>
       </c>
       <c r="F2" t="n">
-        <v>2.40217399597168</v>
+        <v>2.846847772598267</v>
       </c>
       <c r="G2" t="n">
-        <v>2.737528085708618</v>
+        <v>2.738146066665649</v>
       </c>
       <c r="H2" t="n">
-        <v>2.278660297393799</v>
+        <v>2.688790798187256</v>
       </c>
       <c r="I2" t="n">
-        <v>2.268676519393921</v>
+        <v>2.859558820724487</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7476303586454103</v>
+        <v>0.7829909685886267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7822353536119828</v>
+        <v>0.7877909627098304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8081107319165499</v>
+        <v>0.8565640441882305</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8595416661605094</v>
+        <v>0.778689926689111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8025817210259645</v>
+        <v>0.8485162656592287</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7741285345694991</v>
+        <v>0.729729796226105</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8281455320470473</v>
+        <v>0.8406701563230528</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6967582834117553</v>
+        <v>0.8077270037987653</v>
       </c>
     </row>
   </sheetData>

--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_v0.1_speed_coherence.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_v0.1_speed_coherence.xlsx
@@ -485,22 +485,22 @@
         <v>2.670151472091675</v>
       </c>
       <c r="C2" t="n">
-        <v>2.631249904632568</v>
+        <v>2.631538391113281</v>
       </c>
       <c r="D2" t="n">
-        <v>2.341794967651367</v>
+        <v>2.341858863830566</v>
       </c>
       <c r="E2" t="n">
-        <v>3.21087384223938</v>
+        <v>3.210000038146973</v>
       </c>
       <c r="F2" t="n">
         <v>2.846847772598267</v>
       </c>
       <c r="G2" t="n">
-        <v>2.738146066665649</v>
+        <v>2.738089799880981</v>
       </c>
       <c r="H2" t="n">
-        <v>2.688790798187256</v>
+        <v>2.688888788223267</v>
       </c>
       <c r="I2" t="n">
         <v>2.859558820724487</v>
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7829909685886267</v>
+        <v>0.7829881509145101</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7877909627098304</v>
+        <v>0.7878468357599698</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8565640441882305</v>
+        <v>0.8565666113908474</v>
       </c>
       <c r="E3" t="n">
-        <v>0.778689926689111</v>
+        <v>0.7784686800345634</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8485162656592287</v>
+        <v>0.8485172050802604</v>
       </c>
       <c r="G3" t="n">
-        <v>0.729729796226105</v>
+        <v>0.7297183144628332</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8406701563230528</v>
+        <v>0.8406756457939647</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8077270037987653</v>
+        <v>0.8077343421823838</v>
       </c>
     </row>
   </sheetData>

--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_v0.1_speed_coherence.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_v0.1_speed_coherence.xlsx
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.670151472091675</v>
+        <v>4.69481372833252</v>
       </c>
       <c r="C2" t="n">
-        <v>2.631538391113281</v>
+        <v>5.544597625732422</v>
       </c>
       <c r="D2" t="n">
-        <v>2.341858863830566</v>
+        <v>5.13335657119751</v>
       </c>
       <c r="E2" t="n">
-        <v>3.210000038146973</v>
+        <v>6.088653564453125</v>
       </c>
       <c r="F2" t="n">
-        <v>2.846847772598267</v>
+        <v>7.564291000366211</v>
       </c>
       <c r="G2" t="n">
-        <v>2.738089799880981</v>
+        <v>6.763660907745361</v>
       </c>
       <c r="H2" t="n">
-        <v>2.688888788223267</v>
+        <v>4.563490867614746</v>
       </c>
       <c r="I2" t="n">
-        <v>2.859558820724487</v>
+        <v>10.02654552459717</v>
       </c>
     </row>
     <row r="3">
@@ -513,28 +513,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7829881509145101</v>
+        <v>0.8627623479360387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7878468357599698</v>
+        <v>0.8627913918691812</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8565666113908474</v>
+        <v>0.8987604453847124</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7784686800345634</v>
+        <v>0.8527546307243908</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8485172050802604</v>
+        <v>0.8773499226774735</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7297183144628332</v>
+        <v>0.8334333904295811</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8406756457939647</v>
+        <v>0.8726599039814689</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8077343421823838</v>
+        <v>0.9504206969280435</v>
       </c>
     </row>
   </sheetData>
